--- a/data/new_data_raw_12_.xlsx
+++ b/data/new_data_raw_12_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Club America</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>UZT</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 0 - 0)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | La Liga | 17. Hafta | Stat: Reale Arena (33172)</t>
+          <t>(İY 0 - 0)</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 15526 MBS 1</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18-12-23 | Liga MX | Stat: Estadio Azteca</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>MAÇ SONUCU 45364 MBS 2</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.46</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 15537 MBS 1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1-X</t>
+          <t>4.52</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ÇIFTE ŞANS 45365 MBS 2</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-X</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>X-2</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 15567 MBS 1</t>
+          <t>X-2</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1.72</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3,5 ALT/ÜST 45378 MBS 2</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4,5 ALT/ÜST 15577 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>3.49</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4,5 ALT/ÜST 45379 MBS 2</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,5 ALT/ÜST 15562 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>6.61</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>2,5 ALT/ÜST 45377 MBS 2</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 15568 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1.93</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0,5 ALT/ÜST 45374 MBS 2</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>7.31</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 15575 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1,5 ALT/ÜST 45376 MBS 2</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 15594 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1.21</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1. YARI 1,5 ALT/ÜST 45385 MBS 2</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.13</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 15593 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1. YARI 0,5 ALT/ÜST 45384 MBS 2</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 15589 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1.31</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1. YARI 2,5 ALT/ÜST 45386 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 15587 MBS 1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1-X</t>
+          <t>7.46</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1. YARI ÇIFTE ŞANS 45383 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-X</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>X-2</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.43</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 15585 MBS 1</t>
+          <t>X-2</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.30</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1. YARI SONUCU 45382 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.01</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 15601 MBS 1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4.93</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2. YARI SONUCU 45388 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.81</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 15667 MBS 1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tek</t>
+          <t>4.55</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>TEK/ÇIFT 45402 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Çift</t>
+          <t>Tek</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 15581 MBS 1</t>
+          <t>Çift</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1.60</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>TOPLAM GOL ARALIĞI 45381 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>4-5</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>4.68</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 15578 MBS 1</t>
+          <t>6+</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>26.00</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>KARŞILIKLI GOL 45380 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.94</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>İLK YARI/MAÇ SONUCU 15598 MBS 1</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>İLK YARI/MAÇ SONUCU 45387 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>X/1</t>
+          <t>1/1</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.27</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>X/1</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1/X</t>
+          <t>2/1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>28.50</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>X/X</t>
+          <t>1/X</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>16.25</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2/X</t>
+          <t>X/X</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>4.22</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>2/X</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>17.25</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>X/2</t>
+          <t>1/2</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>X/2</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.49</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HND. MS (0:2) 15542 MBS 1</t>
+          <t>2/2</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8.41</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>HND. MS (0:1) 45367 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>+2h</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HND. MS (0:1) 15544 MBS 1</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>HND. MS (1:0) 45368 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.27</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 15547 MBS 1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>12.80</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HND. MS (0:2) 45366 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.68</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>4.18</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAÇ SKORU 15602 MBS 1</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>0-0</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>MAÇ SKORU 45389 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-0</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>9.17</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>25.50</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>110.00</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1-0</t>
+          <t>0-5</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1-0</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.33</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-1</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>5.81</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>16.40</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-3</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>68.00</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1-4</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2-0</t>
+          <t>1-5</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>2-0</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>5.49</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-1</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>7.62</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>2-2</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>67.00</t>
+          <t>20.40</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>87.00</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-4</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>3-0</t>
+          <t>0-6</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-0</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>10.40</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>3-1</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>29.50</t>
+          <t>14.50</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>3-2</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>105.00</t>
+          <t>40.00</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>4-0</t>
+          <t>3-3</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>20.50</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>4-0</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>26.50</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>4-1</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>37.00</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>5-0</t>
+          <t>4-2</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>105.00</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>5-1</t>
+          <t>5-0</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>85.00</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>6-0</t>
+          <t>5-1</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>115.00</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Diğer</t>
+          <t>6-0</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>İLK GOL 15548 MBS 1</t>
+          <t>Diğer</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76.00</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>İLK GOL 45369 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Olmaz</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>1.31</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Olmaz</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>6.82</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 15557 MBS 1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>MS VE 4,5 ALT/ÜST 45373 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>3.02</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.76</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16.60</t>
+          <t>11.50</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>26.50</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 15558 MBS 1</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>MS VE 2,5 ALT/ÜST 45371 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.87</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.53</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.74</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>19.45</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 15551 MBS 1</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>10.40</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>MS VE 1,5 ALT/ÜST 45370 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>5.04</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>7.51</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>10.55</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.95</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>4.89</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 15554 MBS 1</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>7.63</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>MS VE 3,5 ALT/ÜST 45372 MBS 2</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.87</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X ve Alt</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>3.51</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>2 ve Alt</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>5.19</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>1 ve Üst</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>5.63</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>X ve Üst</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>19.30</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1. YARI EN ÇOK KORNER 43058 MBS 1</t>
+          <t>2 ve Üst</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30.50</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 45410 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>1.15</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.83</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1. YARI KORNER ARALIĞI 43069 MBS 1</t>
+          <t>12+</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>EV SAHIBI 2,5 A/Ü 45392 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7+</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.64</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 15696 MBS 1</t>
+          <t>EV SAHIBI 1,5 A/Ü 45391 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.52</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.76</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>EV SAHIBI 0,5 A/Ü 45390 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TOPLAM KORNER ARALIĞI 43057 MBS 1</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>EN ÇOK GOL OLACAK YARI 45396 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1. Yarı</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>Eşit</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>EN ÇOK KORNER 43063 MBS 1</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2. Yarı</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.87</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>DEPLASMAN 2,5 A/Ü 45395 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1.YARI 4,5 KORNER ALT/ÜST 43061 MBS 1</t>
+          <t>10.90</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>DEPLASMAN 0,5 A/Ü 45393 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EV SAHIBI 1,5 A/Ü 15605 MBS 1</t>
+          <t>1.56</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>DEPLASMAN 1,5 A/Ü 45394 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EV SAHIBI 0,5 A/Ü 15604 MBS 1</t>
+          <t>4.28</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1. YARI KARŞILIKLI GOL 45408 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>EV SAHIBI 2,5 A/Ü 15606 MBS 1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>EV SAHIBI İKI YARIYI DA KAZANIR 45400 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>4.17</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>EN ÇOK GOL OLACAK YARI 15651 MBS 1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1. Yarı</t>
+          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 45409 MBS 2</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Eşit</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3634,437 +3634,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2. Yarı</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 0,5 A/Ü 15624 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 1,5 A/Ü 15627 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 2,5 A/Ü 15628 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>10.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>İLK KORNER 43059 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Olmaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>26.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>1. YARI KARŞILIKLI GOL 15693 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>EV SAHIBI İKI YARIYI DA KAZANIR 15662 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Evet</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Hayır</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 15694 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>DEPLASMAN İKI YARIYI DA KAZANIR 15663 MBS 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Evet</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>Hayır</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>1.66</t>
         </is>
       </c>
     </row>
